--- a/Notarius/Bondarenco.xlsx
+++ b/Notarius/Bondarenco.xlsx
@@ -39,7 +39,7 @@
     <author>Пользователь Asus</author>
   </authors>
   <commentList>
-    <comment ref="G3" authorId="0" guid="{0BE36841-5F77-4751-8B59-EEE857544D5E}" shapeId="0">
+    <comment ref="G3" authorId="0" guid="{3C52D4D2-57EB-4ACB-8717-BAE6037D2CCC}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -50,6 +50,21 @@
             <scheme val="minor"/>
           </rPr>
           <t>Alena  375298991523</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N3" authorId="0" guid="{A0A9D290-97D8-459C-8A79-B377B3A5D358}" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">Alena  375298991523
+</t>
         </r>
       </text>
     </comment>
@@ -87,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="10">
   <si>
     <t>13.00-19.00</t>
   </si>
@@ -491,7 +506,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{FA604AAF-7C3B-4467-A8A3-FA342B98676A}" diskRevisions="1" revisionId="6" version="2">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{61B7B81D-EAAF-412E-8111-B6E5284D60F8}" diskRevisions="1" revisionId="70" version="3">
   <header guid="{5274EE28-9ACF-435D-A8EC-4498DC56376C}" dateTime="2023-04-07T20:39:55" maxSheetId="13" userName="Пользователь Asus" r:id="rId1">
     <sheetIdMap count="12">
       <sheetId val="1"/>
@@ -524,6 +539,22 @@
       <sheetId val="12"/>
     </sheetIdMap>
   </header>
+  <header guid="{61B7B81D-EAAF-412E-8111-B6E5284D60F8}" dateTime="2023-04-16T11:47:57" maxSheetId="13" userName="Пользователь Asus" r:id="rId3" minRId="7" maxRId="70">
+    <sheetIdMap count="12">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -707,7 +738,1928 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="2" sqref="N1" start="0" length="0">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="O1" start="0" length="0">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment vertical="center" readingOrder="0"/>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="P1" start="0" length="0">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="Q1" start="0" length="0">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="R1" start="0" length="0">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <border outline="0">
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="S1" start="0" length="0">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="T1" start="0" length="0">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </rfmt>
+  <rcc rId="7" sId="2" odxf="1" dxf="1">
+    <nc r="N2" t="inlineStr">
+      <is>
+        <t>08.00-14.00</t>
+      </is>
+    </nc>
+    <odxf>
+      <border outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </odxf>
+    <ndxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </ndxf>
+  </rcc>
+  <rcc rId="8" sId="2" odxf="1" dxf="1">
+    <nc r="O2" t="inlineStr">
+      <is>
+        <t>выходной</t>
+      </is>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </ndxf>
+  </rcc>
+  <rcc rId="9" sId="2" odxf="1" dxf="1">
+    <nc r="P2" t="inlineStr">
+      <is>
+        <t>выходной</t>
+      </is>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </ndxf>
+  </rcc>
+  <rcc rId="10" sId="2" odxf="1" dxf="1">
+    <nc r="Q2" t="inlineStr">
+      <is>
+        <t>08.30-13.30</t>
+      </is>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border outline="0">
+        <left/>
+        <right/>
+        <top/>
+      </border>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </ndxf>
+  </rcc>
+  <rcc rId="11" sId="2" odxf="1" dxf="1">
+    <nc r="R2" t="inlineStr">
+      <is>
+        <t>08.30-13.30</t>
+      </is>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border outline="0">
+        <left/>
+        <right/>
+        <top/>
+      </border>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </ndxf>
+  </rcc>
+  <rcc rId="12" sId="2" odxf="1" dxf="1">
+    <nc r="S2" t="inlineStr">
+      <is>
+        <t>10.00-16.00</t>
+      </is>
+    </nc>
+    <odxf>
+      <border outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </odxf>
+    <ndxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </ndxf>
+  </rcc>
+  <rcc rId="13" sId="2" odxf="1" dxf="1">
+    <nc r="T2" t="inlineStr">
+      <is>
+        <t>08.00-14.00</t>
+      </is>
+    </nc>
+    <odxf>
+      <border outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </odxf>
+    <ndxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </ndxf>
+  </rcc>
+  <rcc rId="14" sId="2" odxf="1" dxf="1">
+    <nc r="N3" t="inlineStr">
+      <is>
+        <t>Консультация</t>
+      </is>
+    </nc>
+    <odxf>
+      <border outline="0">
+        <left/>
+        <top/>
+      </border>
+    </odxf>
+    <ndxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </ndxf>
+  </rcc>
+  <rcc rId="15" sId="2" odxf="1" dxf="1">
+    <nc r="O3" t="inlineStr">
+      <is>
+        <t>выходной</t>
+      </is>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border outline="0">
+        <left/>
+        <right/>
+        <bottom/>
+      </border>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </ndxf>
+  </rcc>
+  <rcc rId="16" sId="2" odxf="1" dxf="1">
+    <nc r="P3" t="inlineStr">
+      <is>
+        <t>-</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="17" sId="2" odxf="1" dxf="1">
+    <nc r="Q3" t="inlineStr">
+      <is>
+        <t>-</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="18" sId="2" odxf="1" dxf="1">
+    <nc r="R3" t="inlineStr">
+      <is>
+        <t>-</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="19" sId="2" odxf="1" dxf="1">
+    <nc r="S3" t="inlineStr">
+      <is>
+        <t>-</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="2" sqref="T3" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="N4" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+  </rfmt>
+  <rcc rId="20" sId="2" odxf="1" dxf="1">
+    <nc r="O4" t="inlineStr">
+      <is>
+        <t>выходной</t>
+      </is>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </ndxf>
+  </rcc>
+  <rcc rId="21" sId="2" odxf="1" dxf="1">
+    <nc r="P4" t="inlineStr">
+      <is>
+        <t>-</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="2" sqref="Q4" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="R4" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+  </rfmt>
+  <rcc rId="22" sId="2" odxf="1" dxf="1">
+    <nc r="S4" t="inlineStr">
+      <is>
+        <t>-</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="2" sqref="T4" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="N5" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+  </rfmt>
+  <rcc rId="23" sId="2" odxf="1" dxf="1">
+    <nc r="O5" t="inlineStr">
+      <is>
+        <t>выходной</t>
+      </is>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </ndxf>
+  </rcc>
+  <rcc rId="24" sId="2" odxf="1" dxf="1">
+    <nc r="P5" t="inlineStr">
+      <is>
+        <t>-</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="2" sqref="Q5" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="R5" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="T5" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="N6" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+  </rfmt>
+  <rcc rId="25" sId="2" odxf="1" dxf="1">
+    <nc r="O6" t="inlineStr">
+      <is>
+        <t>выходной</t>
+      </is>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </ndxf>
+  </rcc>
+  <rcc rId="26" sId="2" odxf="1" dxf="1">
+    <nc r="P6" t="inlineStr">
+      <is>
+        <t>-</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="2" sqref="Q6" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="R6" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="S6" start="0" length="0">
+    <dxf>
+      <alignment vertical="bottom" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="T6" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="N7" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+  </rfmt>
+  <rcc rId="27" sId="2" odxf="1" dxf="1">
+    <nc r="O7" t="inlineStr">
+      <is>
+        <t>выходной</t>
+      </is>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </ndxf>
+  </rcc>
+  <rcc rId="28" sId="2" odxf="1" dxf="1">
+    <nc r="P7" t="inlineStr">
+      <is>
+        <t>-</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="2" sqref="Q7" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="R7" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="T7" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="N8" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+  </rfmt>
+  <rcc rId="29" sId="2" odxf="1" dxf="1">
+    <nc r="O8" t="inlineStr">
+      <is>
+        <t>выходной</t>
+      </is>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </ndxf>
+  </rcc>
+  <rcc rId="30" sId="2" odxf="1" dxf="1">
+    <nc r="P8" t="inlineStr">
+      <is>
+        <t>-</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="2" sqref="Q8" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="R8" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="T8" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+  </rfmt>
+  <rcc rId="31" sId="2" odxf="1" dxf="1">
+    <nc r="N9" t="inlineStr">
+      <is>
+        <t>-</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border outline="0">
+        <left/>
+      </border>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </ndxf>
+  </rcc>
+  <rcc rId="32" sId="2" odxf="1" dxf="1">
+    <nc r="O9" t="inlineStr">
+      <is>
+        <t>выходной</t>
+      </is>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </ndxf>
+  </rcc>
+  <rcc rId="33" sId="2" odxf="1" dxf="1">
+    <nc r="P9" t="inlineStr">
+      <is>
+        <t>-</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="34" sId="2" odxf="1" dxf="1">
+    <nc r="Q9" t="inlineStr">
+      <is>
+        <t>-</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="35" sId="2" odxf="1" dxf="1">
+    <nc r="R9" t="inlineStr">
+      <is>
+        <t>-</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="36" sId="2" odxf="1" dxf="1">
+    <nc r="T9" t="inlineStr">
+      <is>
+        <t>-</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border outline="0">
+        <left/>
+        <right/>
+      </border>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </ndxf>
+  </rcc>
+  <rcc rId="37" sId="2" odxf="1" dxf="1">
+    <nc r="N10" t="inlineStr">
+      <is>
+        <t>-</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border outline="0">
+        <left/>
+      </border>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </ndxf>
+  </rcc>
+  <rcc rId="38" sId="2" odxf="1" dxf="1">
+    <nc r="O10" t="inlineStr">
+      <is>
+        <t>выходной</t>
+      </is>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </ndxf>
+  </rcc>
+  <rcc rId="39" sId="2" odxf="1" dxf="1">
+    <nc r="P10" t="inlineStr">
+      <is>
+        <t>-</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="40" sId="2" odxf="1" dxf="1">
+    <nc r="Q10" t="inlineStr">
+      <is>
+        <t>-</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="41" sId="2" odxf="1" dxf="1">
+    <nc r="R10" t="inlineStr">
+      <is>
+        <t>-</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="42" sId="2" odxf="1" dxf="1">
+    <nc r="T10" t="inlineStr">
+      <is>
+        <t>-</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border outline="0">
+        <left/>
+        <right/>
+      </border>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </ndxf>
+  </rcc>
+  <rcc rId="43" sId="2" odxf="1" dxf="1">
+    <nc r="N11" t="inlineStr">
+      <is>
+        <t>-</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border outline="0">
+        <left/>
+      </border>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </ndxf>
+  </rcc>
+  <rcc rId="44" sId="2" odxf="1" dxf="1">
+    <nc r="O11" t="inlineStr">
+      <is>
+        <t>выходной</t>
+      </is>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </ndxf>
+  </rcc>
+  <rcc rId="45" sId="2" odxf="1" dxf="1">
+    <nc r="P11" t="inlineStr">
+      <is>
+        <t>-</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="46" sId="2" odxf="1" dxf="1">
+    <nc r="Q11" t="inlineStr">
+      <is>
+        <t>-</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="47" sId="2" odxf="1" dxf="1">
+    <nc r="R11" t="inlineStr">
+      <is>
+        <t>-</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="48" sId="2" odxf="1" dxf="1">
+    <nc r="S11" t="inlineStr">
+      <is>
+        <t>-</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="49" sId="2" odxf="1" dxf="1">
+    <nc r="T11" t="inlineStr">
+      <is>
+        <t>-</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border outline="0">
+        <left/>
+        <right/>
+      </border>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </ndxf>
+  </rcc>
+  <rcc rId="50" sId="2" odxf="1" dxf="1">
+    <nc r="N12" t="inlineStr">
+      <is>
+        <t>-</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border outline="0">
+        <left/>
+      </border>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </ndxf>
+  </rcc>
+  <rcc rId="51" sId="2" odxf="1" dxf="1">
+    <nc r="O12" t="inlineStr">
+      <is>
+        <t>выходной</t>
+      </is>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </ndxf>
+  </rcc>
+  <rcc rId="52" sId="2" odxf="1" dxf="1">
+    <nc r="P12" t="inlineStr">
+      <is>
+        <t>-</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="53" sId="2" odxf="1" dxf="1">
+    <nc r="Q12" t="inlineStr">
+      <is>
+        <t>-</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="54" sId="2" odxf="1" dxf="1">
+    <nc r="R12" t="inlineStr">
+      <is>
+        <t>-</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="55" sId="2" odxf="1" dxf="1">
+    <nc r="S12" t="inlineStr">
+      <is>
+        <t>-</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="56" sId="2" odxf="1" dxf="1">
+    <nc r="T12" t="inlineStr">
+      <is>
+        <t>-</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border outline="0">
+        <left/>
+        <right/>
+      </border>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </ndxf>
+  </rcc>
+  <rcc rId="57" sId="2" odxf="1" dxf="1">
+    <nc r="N13" t="inlineStr">
+      <is>
+        <t>-</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border outline="0">
+        <left/>
+        <bottom/>
+      </border>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </ndxf>
+  </rcc>
+  <rcc rId="58" sId="2" odxf="1" dxf="1">
+    <nc r="O13" t="inlineStr">
+      <is>
+        <t>выходной</t>
+      </is>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </ndxf>
+  </rcc>
+  <rcc rId="59" sId="2" odxf="1" dxf="1">
+    <nc r="P13" t="inlineStr">
+      <is>
+        <t>-</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="60" sId="2" odxf="1" dxf="1">
+    <nc r="Q13" t="inlineStr">
+      <is>
+        <t>-</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="61" sId="2" odxf="1" dxf="1">
+    <nc r="R13" t="inlineStr">
+      <is>
+        <t>-</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="62" sId="2" odxf="1" dxf="1">
+    <nc r="S13" t="inlineStr">
+      <is>
+        <t>-</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="63" sId="2" odxf="1" dxf="1">
+    <nc r="T13" t="inlineStr">
+      <is>
+        <t>-</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border outline="0">
+        <left/>
+        <right/>
+        <bottom/>
+      </border>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </ndxf>
+  </rcc>
+  <rcc rId="64" sId="2" numFmtId="19">
+    <nc r="N1">
+      <v>44666</v>
+    </nc>
+  </rcc>
+  <rcc rId="65" sId="2" numFmtId="19">
+    <nc r="O1">
+      <v>45032</v>
+    </nc>
+  </rcc>
+  <rcc rId="66" sId="2" numFmtId="19">
+    <nc r="P1">
+      <v>45033</v>
+    </nc>
+  </rcc>
+  <rcc rId="67" sId="2" numFmtId="19">
+    <nc r="Q1">
+      <v>45034</v>
+    </nc>
+  </rcc>
+  <rcc rId="68" sId="2" numFmtId="19">
+    <nc r="R1">
+      <v>45035</v>
+    </nc>
+  </rcc>
+  <rcc rId="69" sId="2" numFmtId="19">
+    <nc r="S1">
+      <v>45036</v>
+    </nc>
+  </rcc>
+  <rcc rId="70" sId="2" numFmtId="19">
+    <nc r="T1">
+      <v>45037</v>
+    </nc>
+  </rcc>
+  <rcmt sheetId="2" cell="N3" guid="{A0A9D290-97D8-459C-8A79-B377B3A5D358}" author="Tori Code" newLength="20"/>
+  <rcv guid="{7A932659-217C-4A85-B6A4-F9A8C06A0D8F}" action="delete"/>
+  <rcv guid="{7A932659-217C-4A85-B6A4-F9A8C06A0D8F}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
@@ -1252,10 +3204,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="N1" sqref="N1:T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -1272,7 +3224,7 @@
     <col min="10" max="16384" width="8.88671875" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="27" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" s="27" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="22"/>
       <c r="B1" s="23">
         <v>45019</v>
@@ -1310,8 +3262,29 @@
       <c r="M1" s="25">
         <v>45030</v>
       </c>
+      <c r="N1" s="25">
+        <v>44666</v>
+      </c>
+      <c r="O1" s="26">
+        <v>45032</v>
+      </c>
+      <c r="P1" s="23">
+        <v>45033</v>
+      </c>
+      <c r="Q1" s="23">
+        <v>45034</v>
+      </c>
+      <c r="R1" s="24">
+        <v>45035</v>
+      </c>
+      <c r="S1" s="25">
+        <v>45036</v>
+      </c>
+      <c r="T1" s="25">
+        <v>45037</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="28"/>
       <c r="B2" s="29" t="s">
         <v>4</v>
@@ -1349,8 +3322,29 @@
       <c r="M2" s="30" t="s">
         <v>7</v>
       </c>
+      <c r="N2" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="R2" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="S2" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="T2" s="30" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="33">
         <v>0.33333333333333331</v>
       </c>
@@ -1386,8 +3380,27 @@
         <v>3</v>
       </c>
       <c r="M3" s="34"/>
+      <c r="N3" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="P3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="R3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="S3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="T3" s="34"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="33">
         <v>0.375</v>
       </c>
@@ -1413,8 +3426,21 @@
         <v>3</v>
       </c>
       <c r="M4" s="38"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="P4" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="T4" s="38"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="33">
         <v>0.41666666666666669</v>
       </c>
@@ -1432,8 +3458,18 @@
       <c r="J5" s="38"/>
       <c r="K5" s="38"/>
       <c r="M5" s="38"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="P5" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38"/>
+      <c r="T5" s="38"/>
     </row>
-    <row r="6" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:20" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="33">
         <v>0.45833333333333331</v>
       </c>
@@ -1453,8 +3489,19 @@
       <c r="K6" s="38"/>
       <c r="L6" s="42"/>
       <c r="M6" s="38"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="P6" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="42"/>
+      <c r="T6" s="38"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="33">
         <v>0.5</v>
       </c>
@@ -1474,8 +3521,18 @@
       <c r="J7" s="38"/>
       <c r="K7" s="38"/>
       <c r="M7" s="38"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="P7" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="T7" s="38"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="33">
         <v>0.54166666666666663</v>
       </c>
@@ -1493,8 +3550,18 @@
       <c r="J8" s="38"/>
       <c r="K8" s="38"/>
       <c r="M8" s="38"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="P8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
+      <c r="T8" s="38"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="33">
         <v>0.58333333333333337</v>
       </c>
@@ -1526,8 +3593,26 @@
       <c r="M9" s="44" t="s">
         <v>3</v>
       </c>
+      <c r="N9" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="R9" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="T9" s="44" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="33">
         <v>0.625</v>
       </c>
@@ -1559,8 +3644,26 @@
       <c r="M10" s="44" t="s">
         <v>3</v>
       </c>
+      <c r="N10" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="R10" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="T10" s="44" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="33">
         <v>0.66666666666666663</v>
       </c>
@@ -1598,8 +3701,29 @@
       <c r="M11" s="44" t="s">
         <v>3</v>
       </c>
+      <c r="N11" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="O11" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="P11" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="R11" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="S11" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="T11" s="44" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="33">
         <v>0.70833333333333337</v>
       </c>
@@ -1637,8 +3761,29 @@
       <c r="M12" s="44" t="s">
         <v>3</v>
       </c>
+      <c r="N12" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="R12" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="S12" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="T12" s="44" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="45">
         <v>0.75</v>
       </c>
@@ -1674,13 +3819,34 @@
         <v>3</v>
       </c>
       <c r="M13" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="N13" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="O13" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="P13" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="R13" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="S13" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="T13" s="48" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{7A932659-217C-4A85-B6A4-F9A8C06A0D8F}">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="N1" sqref="N1:T13"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
     </customSheetView>
